--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W2.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W2.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB838C6A-0499-439A-B96E-A1707424E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Wx" sheetId="1" r:id="rId1"/>
+    <sheet name="W2" sheetId="1" r:id="rId1"/>
+    <sheet name="W3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,69 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -254,12 +316,45 @@
   </si>
   <si>
     <t>ashwinmenon</t>
+  </si>
+  <si>
+    <t>&lt;23/5/2022-30/5/2022&gt;</t>
+  </si>
+  <si>
+    <t>Hoàn thiện IT2, và 1 nửa IT3</t>
+  </si>
+  <si>
+    <t>Before 00:00 03/06/2022</t>
+  </si>
+  <si>
+    <t>Trang home bị lỗi không load đc sản phẩm</t>
+  </si>
+  <si>
+    <t>Sửa lại câu lệnh sql</t>
+  </si>
+  <si>
+    <t>Database bị lỗi dữ liệu k hiển thị</t>
+  </si>
+  <si>
+    <t>Khởi động lại</t>
+  </si>
+  <si>
+    <t>không add to cart đc nhiều sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉnh số lượng trong db </t>
+  </si>
+  <si>
+    <t>Dùng git desktop</t>
+  </si>
+  <si>
+    <t>Không push được lên github và chuyển nhánh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,7 +546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,26 +579,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,23 +614,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,29 +789,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="6.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -754,7 +819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -762,12 +827,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -781,7 +846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -795,7 +860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -807,7 +872,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -815,12 +880,12 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -834,7 +899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -846,7 +911,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -858,7 +923,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -870,7 +935,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -882,7 +947,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -894,7 +959,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -906,7 +971,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -918,12 +983,12 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -937,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -951,7 +1016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>55</v>
       </c>
@@ -965,7 +1030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -979,7 +1044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -993,7 +1058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -1007,7 +1072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1021,12 +1086,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>49</v>
@@ -1052,24 +1117,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
         <v>57</v>
@@ -1093,25 +1158,25 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1119,16 +1184,424 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" xr:uid="{B89250DB-06DE-446A-ACB2-093268183482}"/>
-    <hyperlink ref="B37" r:id="rId2" xr:uid="{7ECEF320-FDBB-482B-971E-D66C8E08F413}"/>
+    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="B37" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>44704</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>44705</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44706</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>44706</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44708</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>44709</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="15">
+        <v>44715</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C22:C27">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="B37" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>